--- a/results/variable_description.xlsx
+++ b/results/variable_description.xlsx
@@ -293,12 +293,6 @@
     <t>Variance explained by the 24 motion variables</t>
   </si>
   <si>
-    <t>An estimate of unstructerd noise (resisudal variance after removing all componets)</t>
-  </si>
-  <si>
-    <t>Overal between vaiance components</t>
-  </si>
-  <si>
     <t>BOLDvar/sqrt(UnstructNoiseVar)</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
     <t>R^2 of the regression of MGT onto the unstructured Noise</t>
   </si>
   <si>
-    <t>Variance explained by noise classified components (excluding unstructerd noise)</t>
-  </si>
-  <si>
     <t>Beta of the regression of MGT onto structured and unstructured noise</t>
   </si>
   <si>
@@ -389,9 +380,6 @@
     <t>Phase Econding direction ['LR','RL']</t>
   </si>
   <si>
-    <t>Variance explained by signal components after unaggressive FIX cleaning  (excluding unstructerd noise)</t>
-  </si>
-  <si>
     <t>R^2 of the regression of MGT onto structured and unstructured Noise</t>
   </si>
   <si>
@@ -435,6 +423,18 @@
   </si>
   <si>
     <t>Beta of the regression of MGT onto WM and CSF cleaned series</t>
+  </si>
+  <si>
+    <t>Variance explained by noise classified components (excluding unstructured noise)</t>
+  </si>
+  <si>
+    <t>Variance explained by signal components after unaggressive FIX cleaning  (excluding unstructured noise)</t>
+  </si>
+  <si>
+    <t>An estimate of unstructured noise (residual variance after removing all components)</t>
+  </si>
+  <si>
+    <t>Variance shared across (variance) components</t>
   </si>
 </sst>
 </file>
@@ -1068,15 +1068,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="3" max="3" width="70.44140625" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.88671875" bestFit="1" customWidth="1"/>
@@ -1087,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>76</v>
@@ -1096,7 +1096,7 @@
         <v>77</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>76</v>
@@ -1105,7 +1105,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>76</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="22">
         <v>27</v>
@@ -1131,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" s="26">
         <v>53</v>
@@ -1140,7 +1140,7 @@
         <v>52</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6">
         <f>D2+1</f>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="27">
         <f>G2+1</f>
@@ -1172,7 +1172,7 @@
         <v>53</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D27" si="1">D3+1</f>
@@ -1194,7 +1194,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G25" si="2">G3+1</f>
@@ -1204,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="2"/>
@@ -1236,7 +1236,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" si="2"/>
@@ -1268,7 +1268,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" si="2"/>
@@ -1300,7 +1300,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" si="2"/>
@@ -1332,7 +1332,7 @@
         <v>58</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" si="2"/>
@@ -1364,7 +1364,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="2"/>
@@ -1396,7 +1396,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
@@ -1418,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" si="2"/>
@@ -1428,7 +1428,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="1"/>
@@ -1450,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" si="2"/>
@@ -1460,7 +1460,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="1"/>
@@ -1482,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" si="2"/>
@@ -1492,7 +1492,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
@@ -1514,7 +1514,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" si="2"/>
@@ -1524,7 +1524,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="1"/>
@@ -1546,7 +1546,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" si="2"/>
@@ -1556,7 +1556,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" si="2"/>
@@ -1588,7 +1588,7 @@
         <v>66</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" si="2"/>
@@ -1620,7 +1620,7 @@
         <v>67</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1642,7 +1642,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" si="2"/>
@@ -1652,7 +1652,7 @@
         <v>68</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1674,7 +1674,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" si="2"/>
@@ -1684,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>44</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" si="2"/>
@@ -1716,7 +1716,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="1"/>
@@ -1738,7 +1738,7 @@
         <v>45</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" si="2"/>
@@ -1748,7 +1748,7 @@
         <v>71</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="1"/>
@@ -1770,7 +1770,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" si="2"/>
@@ -1780,7 +1780,7 @@
         <v>72</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1792,7 +1792,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="1"/>
@@ -1802,7 +1802,7 @@
         <v>47</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" si="2"/>
@@ -1812,7 +1812,7 @@
         <v>73</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
@@ -1834,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" si="2"/>
@@ -1844,7 +1844,7 @@
         <v>74</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1856,7 +1856,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="1"/>
@@ -1866,7 +1866,7 @@
         <v>49</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" si="2"/>
@@ -1876,7 +1876,7 @@
         <v>75</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1888,7 +1888,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
@@ -1898,7 +1898,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1914,7 +1914,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="1"/>
@@ -1924,7 +1924,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
